--- a/biology/Zoologie/Buthidae/Buthidae.xlsx
+++ b/biology/Zoologie/Buthidae/Buthidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Buthidae sont une famille de scorpions.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents[1], généralement dans leurs parties les plus chaudes, dans des terrains désertiques ou semi-désertiques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents, généralement dans leurs parties les plus chaudes, dans des terrains désertiques ou semi-désertiques.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces scorpions mesurent de 20 à 120 mm de long[2].
-Cette famille contient de nombreuses espèces dont la piqûre est dangereuse, voire mortelle, pour celles qui produisent un venin neurotoxique (de grade 4), pour l'être humain[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces scorpions mesurent de 20 à 120 mm de long.
+Cette famille contient de nombreuses espèces dont la piqûre est dangereuse, voire mortelle, pour celles qui produisent un venin neurotoxique (de grade 4), pour l'être humain.
 Les portées comptent entre 10 et 150 petits scorpions (pullus).
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (22/04/2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (22/04/2023) :
 Aegaeobuthus Kovařík, 2019
 Afroisometrus Kovařík, 1997
 Afrolychas Kovařík, 2019
@@ -671,7 +689,7 @@
 Vachonus Tikader &amp; Bastawade, 1983
 Xenobuthus Lowe, 2018
 Zabius Thorell, 1893
-Selon World Spider Catalog (version 23.5, 2023)[3] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Cretaceousbuthus Lourenço, 2022
 † Palaeoakentrobuthus Lourenço &amp; Weitschat, 2000
 † Palaeoisometrus Lourenço &amp; Weitschat, 2005
@@ -707,12 +725,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par C. L. Koch en 1837.
 Cette famille comprend 1250 espèces dans les 95 genres.
-Les Microcharmidae[4], placés en synonymie avec les Buthidae par Volschenk, Mattoni et Prendini en 2008[5], relevés de synonymie par Lourenço, Waeber et Wilmé en 2019[6], ont été placés en synonymie par Lowe et Kovařík en 2022[7].
-Les genres Ananteris, Ananteroides, Himalayotityobuthus, Lychasioides, Microananteris, Tityobuthus et Troglotityobuthus, ainsi que les genres fossiles Archaeoananteroides, Palaeoananteris et Palaeotityobuthus ont été placés dans la famille des Ananteridae par Ythier en 2024[8].
+Les Microcharmidae, placés en synonymie avec les Buthidae par Volschenk, Mattoni et Prendini en 2008, relevés de synonymie par Lourenço, Waeber et Wilmé en 2019, ont été placés en synonymie par Lowe et Kovařík en 2022.
+Les genres Ananteris, Ananteroides, Himalayotityobuthus, Lychasioides, Microananteris, Tityobuthus et Troglotityobuthus, ainsi que les genres fossiles Archaeoananteroides, Palaeoananteris et Palaeotityobuthus ont été placés dans la famille des Ananteridae par Ythier en 2024.
 </t>
         </is>
       </c>
@@ -741,7 +761,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>C. L. Koch, 1837 : « Scorpionen. » Übersicht des Arachnidensystems, Nürnberg, C.H. Zeh'sche Buchhandlung, p. 36–40 (texte intégral).</t>
         </is>
